--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,13 +43,13 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>broke</t>
   </si>
   <si>
     <t>negative</t>
@@ -58,130 +58,139 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>comfortable</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>well</t>
   </si>
   <si>
     <t>highly</t>
@@ -190,55 +199,52 @@
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>buy</t>
@@ -608,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.55</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +807,13 @@
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2626262626262627</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8374613003095975</v>
+        <v>0.8544891640866873</v>
       </c>
       <c r="L6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M6">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +883,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.7229437229437229</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +909,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7142857142857143</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +935,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7111111111111111</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -955,13 +961,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -981,13 +987,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6847457627118644</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L11">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,10 +1016,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1033,13 +1039,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6457142857142857</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1051,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1059,13 +1065,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6380417335473515</v>
+        <v>0.6474576271186441</v>
       </c>
       <c r="L14">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="M14">
-        <v>795</v>
+        <v>191</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>451</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6304347826086957</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1103,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1111,13 +1117,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6301369863013698</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>786</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>786</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1129,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1137,13 +1143,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6176470588235294</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1163,13 +1169,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1181,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1189,13 +1195,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5982905982905983</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1215,13 +1221,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5915492957746479</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1241,13 +1247,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1267,13 +1273,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5421686746987951</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1293,13 +1299,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5288461538461539</v>
+        <v>0.546875</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1311,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1319,13 +1325,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5029940119760479</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L24">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1345,13 +1351,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4912280701754386</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1363,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1371,13 +1377,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.49</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1389,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1397,13 +1403,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4887218045112782</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1423,13 +1429,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4861111111111111</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1449,13 +1455,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4615384615384616</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1475,13 +1481,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4397590361445783</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L30">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1501,13 +1507,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4126984126984127</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1527,13 +1533,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.4074074074074074</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1545,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1553,13 +1559,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.3934426229508197</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1579,13 +1585,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3693693693693694</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1597,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1605,13 +1611,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3627450980392157</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L35">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>260</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1631,13 +1637,13 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3538461538461539</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1649,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1657,13 +1663,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3385214007782101</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L37">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>170</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1683,13 +1689,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3308270676691729</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1709,13 +1715,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3301369863013698</v>
+        <v>0.3273972602739726</v>
       </c>
       <c r="L39">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M39">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1727,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1735,13 +1741,13 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3093525179856115</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1753,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1761,13 +1767,13 @@
         <v>51</v>
       </c>
       <c r="K41">
-        <v>0.277511961722488</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L41">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M41">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1779,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1813,13 +1819,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2561894510226049</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L43">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1831,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>691</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1839,13 +1845,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2317880794701987</v>
+        <v>0.2551130247578041</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1865,13 +1871,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.219435736677116</v>
+        <v>0.25</v>
       </c>
       <c r="L45">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>249</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1891,13 +1897,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.1981981981981982</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1909,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>89</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1917,13 +1923,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.1960264900662252</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L47">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1935,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>607</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1943,13 +1949,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.1892583120204604</v>
+        <v>0.20076726342711</v>
       </c>
       <c r="L48">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M48">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1961,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1969,13 +1975,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.1610738255033557</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1987,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1995,13 +2001,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.1580756013745704</v>
+        <v>0.1947019867549669</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2013,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>245</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2021,13 +2027,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1454545454545454</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2047,25 +2053,25 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1411192214111922</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L52">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>353</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2073,25 +2079,25 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1363636363636364</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>152</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2099,13 +2105,13 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1333333333333333</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L54">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>234</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2125,25 +2131,25 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1324324324324324</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L55">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M55">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2151,13 +2157,13 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1318181818181818</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="L56">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2169,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>382</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2177,13 +2183,13 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1182266009852217</v>
+        <v>0.125</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2195,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>179</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2203,13 +2209,13 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1143911439114391</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2221,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2229,25 +2235,25 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1008403361344538</v>
+        <v>0.1184510250569476</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>214</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2255,13 +2261,13 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.0883054892601432</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L60">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>382</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2281,13 +2287,13 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.08771929824561403</v>
+        <v>0.09225092250922509</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>416</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2307,13 +2313,13 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.08743169398907104</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M62">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2325,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2333,25 +2339,25 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.07476635514018691</v>
+        <v>0.08477011494252873</v>
       </c>
       <c r="L63">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M63">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>990</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2359,25 +2365,25 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.07460545193687231</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="L64">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>645</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2385,13 +2391,13 @@
         <v>75</v>
       </c>
       <c r="K65">
-        <v>0.06598984771573604</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2403,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2411,25 +2417,25 @@
         <v>76</v>
       </c>
       <c r="K66">
-        <v>0.05719557195571956</v>
+        <v>0.06816059757236227</v>
       </c>
       <c r="L66">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M66">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>511</v>
+        <v>998</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2437,25 +2443,77 @@
         <v>77</v>
       </c>
       <c r="K67">
-        <v>0.03732638888888889</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="L67">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68">
+        <v>0.05175600739371534</v>
+      </c>
+      <c r="L68">
+        <v>28</v>
+      </c>
+      <c r="M68">
+        <v>29</v>
+      </c>
+      <c r="N68">
+        <v>0.97</v>
+      </c>
+      <c r="O68">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69">
+        <v>0.03209019947961839</v>
+      </c>
+      <c r="L69">
+        <v>37</v>
+      </c>
+      <c r="M69">
+        <v>41</v>
+      </c>
+      <c r="N69">
         <v>0.9</v>
       </c>
-      <c r="O67">
+      <c r="O69">
         <v>0.09999999999999998</v>
       </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1109</v>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
